--- a/results/scale/pressDuration_grouped_wide_with_scale.xlsx
+++ b/results/scale/pressDuration_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>245.4736842105264</v>
+      </c>
       <c r="C2" t="n">
-        <v>245.4736842105264</v>
+        <v>202.24</v>
       </c>
       <c r="D2" t="n">
-        <v>202.24</v>
+        <v>238.88</v>
       </c>
       <c r="E2" t="n">
-        <v>238.88</v>
+        <v>203.1428571428572</v>
       </c>
       <c r="F2" t="n">
-        <v>203.1428571428572</v>
+        <v>220.4761904761905</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4761904761905</v>
+        <v>216.6190476190476</v>
       </c>
       <c r="H2" t="n">
-        <v>216.6190476190476</v>
+        <v>233.95</v>
       </c>
       <c r="I2" t="n">
-        <v>233.95</v>
+        <v>224</v>
       </c>
       <c r="J2" t="n">
-        <v>224</v>
+        <v>-6.593684210526362</v>
       </c>
       <c r="K2" t="n">
-        <v>35.73714285714283</v>
+        <v>-0.9028571428571581</v>
       </c>
       <c r="L2" t="n">
-        <v>43.23368421052635</v>
+        <v>13.47380952380951</v>
       </c>
       <c r="M2" t="n">
-        <v>9.949999999999989</v>
+        <v>-7.380952380952408</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85714285714289</v>
+        <v>20.85476190476192</v>
       </c>
       <c r="O2" t="n">
-        <v>20.85476190476192</v>
+        <v>-5.690827067669204</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.690827067669204</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-1.403684210526421</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>15.16393483709271</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>303.6666666666667</v>
+      </c>
       <c r="C3" t="n">
-        <v>303.6666666666667</v>
+        <v>238.8846153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>238.8846153846154</v>
+        <v>221.4230769230769</v>
       </c>
       <c r="E3" t="n">
-        <v>221.4230769230769</v>
+        <v>228.5714285714286</v>
       </c>
       <c r="F3" t="n">
-        <v>228.5714285714286</v>
+        <v>249</v>
       </c>
       <c r="G3" t="n">
-        <v>249</v>
+        <v>192.4583333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>192.4583333333333</v>
+        <v>189.2916666666666</v>
       </c>
       <c r="I3" t="n">
-        <v>189.2916666666666</v>
+        <v>185.3636363636364</v>
       </c>
       <c r="J3" t="n">
-        <v>185.3636363636364</v>
+        <v>-82.24358974358975</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.148351648351621</v>
+        <v>10.31318681318683</v>
       </c>
       <c r="L3" t="n">
-        <v>64.7820512820513</v>
+        <v>-59.70833333333337</v>
       </c>
       <c r="M3" t="n">
-        <v>3.928030303030226</v>
+        <v>7.094696969696912</v>
       </c>
       <c r="N3" t="n">
-        <v>56.54166666666669</v>
+        <v>-66.80303030303031</v>
       </c>
       <c r="O3" t="n">
-        <v>-66.80303030303031</v>
+        <v>-92.55677655677664</v>
       </c>
       <c r="P3" t="n">
-        <v>-92.55677655677664</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-124.5440392940394</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>-159.3598068598069</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>228.7619047619048</v>
+      </c>
       <c r="C4" t="n">
-        <v>228.7619047619048</v>
+        <v>197.4615384615385</v>
       </c>
       <c r="D4" t="n">
-        <v>197.4615384615385</v>
+        <v>231.8461538461538</v>
       </c>
       <c r="E4" t="n">
-        <v>231.8461538461538</v>
+        <v>192.7272727272727</v>
       </c>
       <c r="F4" t="n">
-        <v>192.7272727272727</v>
+        <v>208.0833333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>208.0833333333333</v>
+        <v>196.0416666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>196.0416666666666</v>
+        <v>218.9090909090909</v>
       </c>
       <c r="I4" t="n">
-        <v>218.9090909090909</v>
+        <v>190.375</v>
       </c>
       <c r="J4" t="n">
-        <v>190.375</v>
+        <v>3.084249084249052</v>
       </c>
       <c r="K4" t="n">
-        <v>39.11888111888112</v>
+        <v>4.734265734265733</v>
       </c>
       <c r="L4" t="n">
-        <v>31.30036630036633</v>
+        <v>10.82575757575759</v>
       </c>
       <c r="M4" t="n">
-        <v>28.53409090909091</v>
+        <v>5.666666666666629</v>
       </c>
       <c r="N4" t="n">
-        <v>12.04166666666669</v>
+        <v>5.159090909090935</v>
       </c>
       <c r="O4" t="n">
-        <v>5.159090909090935</v>
+        <v>-1.65001665001671</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.65001665001671</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24.31093906093901</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>3.509074259074282</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>307.7916666666667</v>
+      </c>
       <c r="C5" t="n">
-        <v>307.7916666666667</v>
+        <v>293.5555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>293.5555555555555</v>
+        <v>221.5</v>
       </c>
       <c r="E5" t="n">
-        <v>221.5</v>
+        <v>274.5</v>
       </c>
       <c r="F5" t="n">
-        <v>274.5</v>
+        <v>226.7727272727273</v>
       </c>
       <c r="G5" t="n">
-        <v>226.7727272727273</v>
+        <v>217.9473684210526</v>
       </c>
       <c r="H5" t="n">
-        <v>217.9473684210526</v>
+        <v>233.2105263157895</v>
       </c>
       <c r="I5" t="n">
-        <v>233.2105263157895</v>
+        <v>304.3157894736842</v>
       </c>
       <c r="J5" t="n">
-        <v>304.3157894736842</v>
+        <v>-86.29166666666669</v>
       </c>
       <c r="K5" t="n">
-        <v>-53</v>
+        <v>19.05555555555554</v>
       </c>
       <c r="L5" t="n">
-        <v>14.23611111111114</v>
+        <v>6.437799043062199</v>
       </c>
       <c r="M5" t="n">
-        <v>-71.10526315789474</v>
+        <v>-86.36842105263159</v>
       </c>
       <c r="N5" t="n">
-        <v>8.82535885167465</v>
+        <v>92.80622009569385</v>
       </c>
       <c r="O5" t="n">
-        <v>92.80622009569385</v>
+        <v>-105.3472222222222</v>
       </c>
       <c r="P5" t="n">
-        <v>-105.3472222222222</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-147.1667331206805</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>-12.54100212652844</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>217.56</v>
+      </c>
       <c r="C6" t="n">
-        <v>217.56</v>
+        <v>205.8695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>205.8695652173913</v>
+        <v>219.5454545454545</v>
       </c>
       <c r="E6" t="n">
-        <v>219.5454545454545</v>
+        <v>214.2</v>
       </c>
       <c r="F6" t="n">
-        <v>214.2</v>
+        <v>200.1851851851852</v>
       </c>
       <c r="G6" t="n">
-        <v>200.1851851851852</v>
+        <v>194.8095238095238</v>
       </c>
       <c r="H6" t="n">
-        <v>194.8095238095238</v>
+        <v>210.2857142857143</v>
       </c>
       <c r="I6" t="n">
-        <v>210.2857142857143</v>
+        <v>203.7037037037037</v>
       </c>
       <c r="J6" t="n">
-        <v>203.7037037037037</v>
+        <v>1.98545454545453</v>
       </c>
       <c r="K6" t="n">
-        <v>5.345454545454544</v>
+        <v>-8.330434782608677</v>
       </c>
       <c r="L6" t="n">
-        <v>11.69043478260869</v>
+        <v>10.10052910052909</v>
       </c>
       <c r="M6" t="n">
-        <v>6.582010582010582</v>
+        <v>-8.894179894179899</v>
       </c>
       <c r="N6" t="n">
-        <v>5.375661375661394</v>
+        <v>18.99470899470901</v>
       </c>
       <c r="O6" t="n">
-        <v>18.99470899470901</v>
+        <v>10.31588932806324</v>
       </c>
       <c r="P6" t="n">
-        <v>10.31588932806324</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-5.138631030804959</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>29.31059832277219</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>181.2727272727273</v>
+      </c>
       <c r="C7" t="n">
-        <v>181.2727272727273</v>
+        <v>184.52</v>
       </c>
       <c r="D7" t="n">
-        <v>184.52</v>
+        <v>162.8846153846154</v>
       </c>
       <c r="E7" t="n">
-        <v>162.8846153846154</v>
+        <v>178.0952380952381</v>
       </c>
       <c r="F7" t="n">
-        <v>178.0952380952381</v>
+        <v>166.1481481481482</v>
       </c>
       <c r="G7" t="n">
-        <v>166.1481481481482</v>
+        <v>192</v>
       </c>
       <c r="H7" t="n">
-        <v>192</v>
+        <v>176.3</v>
       </c>
       <c r="I7" t="n">
-        <v>176.3</v>
+        <v>191</v>
       </c>
       <c r="J7" t="n">
-        <v>191</v>
+        <v>-18.38811188811189</v>
       </c>
       <c r="K7" t="n">
-        <v>-15.21062271062272</v>
+        <v>6.424761904761908</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.24727272727273</v>
+        <v>10.15185185185186</v>
       </c>
       <c r="M7" t="n">
-        <v>-14.69999999999999</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-25.85185185185185</v>
+        <v>9.151851851851859</v>
       </c>
       <c r="O7" t="n">
-        <v>9.151851851851859</v>
+        <v>-24.8128737928738</v>
       </c>
       <c r="P7" t="n">
-        <v>-24.8128737928738</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-0.8114981314981264</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>-15.66102194102194</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>148.4761904761905</v>
+      </c>
       <c r="C8" t="n">
-        <v>148.4761904761905</v>
+        <v>150.5769230769231</v>
       </c>
       <c r="D8" t="n">
-        <v>150.5769230769231</v>
+        <v>178.962962962963</v>
       </c>
       <c r="E8" t="n">
-        <v>178.962962962963</v>
+        <v>162.1904761904762</v>
       </c>
       <c r="F8" t="n">
-        <v>162.1904761904762</v>
+        <v>157.4583333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>157.4583333333333</v>
+        <v>147.9565217391304</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9565217391304</v>
+        <v>155.8260869565217</v>
       </c>
       <c r="I8" t="n">
-        <v>155.8260869565217</v>
+        <v>151.32</v>
       </c>
       <c r="J8" t="n">
-        <v>151.32</v>
+        <v>30.48677248677248</v>
       </c>
       <c r="K8" t="n">
-        <v>16.77248677248676</v>
+        <v>-11.61355311355314</v>
       </c>
       <c r="L8" t="n">
-        <v>-2.100732600732584</v>
+        <v>-1.632246376811594</v>
       </c>
       <c r="M8" t="n">
-        <v>4.506086956521756</v>
+        <v>-3.363478260869556</v>
       </c>
       <c r="N8" t="n">
-        <v>9.501811594202906</v>
+        <v>1.731231884057991</v>
       </c>
       <c r="O8" t="n">
-        <v>1.731231884057991</v>
+        <v>42.10032560032562</v>
       </c>
       <c r="P8" t="n">
-        <v>42.10032560032562</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>13.87749473553819</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>43.83155748438358</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>201.9285714285714</v>
+      </c>
       <c r="C9" t="n">
-        <v>201.9285714285714</v>
+        <v>191.9</v>
       </c>
       <c r="D9" t="n">
-        <v>191.9</v>
+        <v>228.55</v>
       </c>
       <c r="E9" t="n">
-        <v>228.55</v>
+        <v>196.5</v>
       </c>
       <c r="F9" t="n">
-        <v>196.5</v>
+        <v>194.8095238095238</v>
       </c>
       <c r="G9" t="n">
-        <v>194.8095238095238</v>
+        <v>199.5</v>
       </c>
       <c r="H9" t="n">
-        <v>199.5</v>
+        <v>202.5185185185185</v>
       </c>
       <c r="I9" t="n">
-        <v>202.5185185185185</v>
+        <v>200.4761904761905</v>
       </c>
       <c r="J9" t="n">
-        <v>200.4761904761905</v>
+        <v>26.62142857142857</v>
       </c>
       <c r="K9" t="n">
-        <v>32.05000000000001</v>
+        <v>-4.599999999999994</v>
       </c>
       <c r="L9" t="n">
-        <v>10.02857142857144</v>
+        <v>7.708994708994709</v>
       </c>
       <c r="M9" t="n">
-        <v>2.042328042328023</v>
+        <v>-0.9761904761904816</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.690476190476204</v>
+        <v>8.685185185185162</v>
       </c>
       <c r="O9" t="n">
-        <v>8.685185185185162</v>
+        <v>31.22142857142859</v>
       </c>
       <c r="P9" t="n">
-        <v>31.22142857142859</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>28.7542328042328</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>39.90661375661375</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>167.1034482758621</v>
+      </c>
       <c r="C10" t="n">
-        <v>167.1034482758621</v>
+        <v>174.4736842105263</v>
       </c>
       <c r="D10" t="n">
-        <v>174.4736842105263</v>
+        <v>175.1052631578947</v>
       </c>
       <c r="E10" t="n">
-        <v>175.1052631578947</v>
+        <v>171.5</v>
       </c>
       <c r="F10" t="n">
-        <v>171.5</v>
+        <v>169.3478260869565</v>
       </c>
       <c r="G10" t="n">
-        <v>169.3478260869565</v>
+        <v>167.8</v>
       </c>
       <c r="H10" t="n">
-        <v>167.8</v>
+        <v>169.72</v>
       </c>
       <c r="I10" t="n">
-        <v>169.72</v>
+        <v>156.9130434782609</v>
       </c>
       <c r="J10" t="n">
-        <v>156.9130434782609</v>
+        <v>8.001814882032676</v>
       </c>
       <c r="K10" t="n">
-        <v>3.60526315789474</v>
+        <v>2.973684210526329</v>
       </c>
       <c r="L10" t="n">
-        <v>-7.370235934664265</v>
+        <v>0.3721739130434685</v>
       </c>
       <c r="M10" t="n">
-        <v>12.80695652173912</v>
+        <v>10.88695652173914</v>
       </c>
       <c r="N10" t="n">
-        <v>1.547826086956519</v>
+        <v>-10.51478260869567</v>
       </c>
       <c r="O10" t="n">
-        <v>-10.51478260869567</v>
+        <v>5.028130671506347</v>
       </c>
       <c r="P10" t="n">
-        <v>5.028130671506347</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>22.23462952734161</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>-5.486651937189322</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>153.5384615384615</v>
+      </c>
       <c r="C11" t="n">
-        <v>153.5384615384615</v>
+        <v>189.8181818181818</v>
       </c>
       <c r="D11" t="n">
-        <v>189.8181818181818</v>
+        <v>154.4545454545455</v>
       </c>
       <c r="E11" t="n">
-        <v>154.4545454545455</v>
+        <v>176.0384615384615</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0384615384615</v>
+        <v>176.8518518518518</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8518518518518</v>
+        <v>180</v>
       </c>
       <c r="H11" t="n">
-        <v>180</v>
+        <v>161.1</v>
       </c>
       <c r="I11" t="n">
-        <v>161.1</v>
+        <v>179.3928571428571</v>
       </c>
       <c r="J11" t="n">
-        <v>179.3928571428571</v>
+        <v>0.9160839160839203</v>
       </c>
       <c r="K11" t="n">
-        <v>-21.58391608391608</v>
+        <v>13.77972027972027</v>
       </c>
       <c r="L11" t="n">
-        <v>-36.27972027972027</v>
+        <v>-15.75185185185185</v>
       </c>
       <c r="M11" t="n">
-        <v>-18.29285714285714</v>
+        <v>0.6071428571428612</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.148148148148152</v>
+        <v>-16.35899470899471</v>
       </c>
       <c r="O11" t="n">
-        <v>-16.35899470899471</v>
+        <v>-12.86363636363632</v>
       </c>
       <c r="P11" t="n">
-        <v>-12.86363636363632</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-0.4489047989048061</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>-29.22263107263106</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>219.125</v>
+      </c>
       <c r="C12" t="n">
-        <v>219.125</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>203.3333333333333</v>
+        <v>212.0833333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>212.0833333333333</v>
+        <v>216.8695652173913</v>
       </c>
       <c r="F12" t="n">
-        <v>216.8695652173913</v>
+        <v>235.0952380952381</v>
       </c>
       <c r="G12" t="n">
-        <v>235.0952380952381</v>
+        <v>212.0384615384615</v>
       </c>
       <c r="H12" t="n">
-        <v>212.0384615384615</v>
+        <v>233.9615384615385</v>
       </c>
       <c r="I12" t="n">
-        <v>233.9615384615385</v>
+        <v>216.3181818181818</v>
       </c>
       <c r="J12" t="n">
-        <v>216.3181818181818</v>
+        <v>-7.041666666666686</v>
       </c>
       <c r="K12" t="n">
-        <v>-4.786231884057997</v>
+        <v>-13.536231884058</v>
       </c>
       <c r="L12" t="n">
-        <v>15.79166666666669</v>
+        <v>-1.133699633699649</v>
       </c>
       <c r="M12" t="n">
-        <v>17.64335664335664</v>
+        <v>-4.279720279720266</v>
       </c>
       <c r="N12" t="n">
-        <v>23.05677655677655</v>
+        <v>3.146020646020645</v>
       </c>
       <c r="O12" t="n">
-        <v>3.146020646020645</v>
+        <v>6.494565217391312</v>
       </c>
       <c r="P12" t="n">
-        <v>6.494565217391312</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-25.9913184641446</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>9.640585863411928</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>204.0833333333333</v>
+      </c>
       <c r="C13" t="n">
-        <v>204.0833333333333</v>
+        <v>306.9130434782609</v>
       </c>
       <c r="D13" t="n">
-        <v>306.9130434782609</v>
+        <v>184.9565217391304</v>
       </c>
       <c r="E13" t="n">
-        <v>184.9565217391304</v>
+        <v>239.08</v>
       </c>
       <c r="F13" t="n">
-        <v>239.08</v>
+        <v>185.9615384615385</v>
       </c>
       <c r="G13" t="n">
-        <v>185.9615384615385</v>
+        <v>178.1428571428571</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1428571428571</v>
+        <v>186.047619047619</v>
       </c>
       <c r="I13" t="n">
-        <v>186.047619047619</v>
+        <v>178.2222222222222</v>
       </c>
       <c r="J13" t="n">
-        <v>178.2222222222222</v>
+        <v>-19.12681159420288</v>
       </c>
       <c r="K13" t="n">
-        <v>-54.12347826086958</v>
+        <v>67.83304347826086</v>
       </c>
       <c r="L13" t="n">
-        <v>-102.8297101449276</v>
+        <v>0.086080586080584</v>
       </c>
       <c r="M13" t="n">
-        <v>7.825396825396808</v>
+        <v>-0.07936507936508974</v>
       </c>
       <c r="N13" t="n">
-        <v>7.818681318681314</v>
+        <v>0.1654456654457022</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1654456654457022</v>
+        <v>-86.95985507246377</v>
       </c>
       <c r="P13" t="n">
-        <v>-86.95985507246377</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>48.71294739077348</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>-86.79440940701807</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>144.08</v>
+      </c>
       <c r="C14" t="n">
-        <v>144.08</v>
+        <v>155.1304347826087</v>
       </c>
       <c r="D14" t="n">
-        <v>155.1304347826087</v>
+        <v>148.695652173913</v>
       </c>
       <c r="E14" t="n">
-        <v>148.695652173913</v>
+        <v>164.12</v>
       </c>
       <c r="F14" t="n">
-        <v>164.12</v>
+        <v>143.1666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>143.1666666666667</v>
+        <v>152.5</v>
       </c>
       <c r="H14" t="n">
-        <v>152.5</v>
+        <v>142.9166666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>142.9166666666667</v>
+        <v>159.9166666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>159.9166666666667</v>
+        <v>4.61565217391302</v>
       </c>
       <c r="K14" t="n">
-        <v>-15.42434782608697</v>
+        <v>-8.989565217391316</v>
       </c>
       <c r="L14" t="n">
-        <v>-11.05043478260868</v>
+        <v>-0.25</v>
       </c>
       <c r="M14" t="n">
-        <v>-17</v>
+        <v>-7.416666666666657</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.333333333333343</v>
+        <v>7.166666666666686</v>
       </c>
       <c r="O14" t="n">
-        <v>7.166666666666686</v>
+        <v>13.60521739130434</v>
       </c>
       <c r="P14" t="n">
-        <v>13.60521739130434</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-12.04057971014495</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>20.77188405797099</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>178.3181818181818</v>
+      </c>
       <c r="C15" t="n">
-        <v>178.3181818181818</v>
+        <v>164.36</v>
       </c>
       <c r="D15" t="n">
-        <v>164.36</v>
+        <v>181.1666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>181.1666666666666</v>
+        <v>154.6521739130435</v>
       </c>
       <c r="F15" t="n">
-        <v>154.6521739130435</v>
+        <v>175.9545454545455</v>
       </c>
       <c r="G15" t="n">
-        <v>175.9545454545455</v>
+        <v>158.28</v>
       </c>
       <c r="H15" t="n">
-        <v>158.28</v>
+        <v>185.7307692307692</v>
       </c>
       <c r="I15" t="n">
-        <v>185.7307692307692</v>
+        <v>156.5909090909091</v>
       </c>
       <c r="J15" t="n">
-        <v>156.5909090909091</v>
+        <v>2.848484848484816</v>
       </c>
       <c r="K15" t="n">
-        <v>26.51449275362316</v>
+        <v>9.707826086956544</v>
       </c>
       <c r="L15" t="n">
-        <v>13.9581818181818</v>
+        <v>9.776223776223759</v>
       </c>
       <c r="M15" t="n">
-        <v>29.13986013986013</v>
+        <v>1.689090909090908</v>
       </c>
       <c r="N15" t="n">
-        <v>17.67454545454547</v>
+        <v>8.087132867132823</v>
       </c>
       <c r="O15" t="n">
-        <v>8.087132867132823</v>
+        <v>-6.8593412384717</v>
       </c>
       <c r="P15" t="n">
-        <v>-6.8593412384717</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>24.02162562075603</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>1.227791628661123</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>97.16</v>
+      </c>
       <c r="C16" t="n">
-        <v>97.16</v>
+        <v>114.4782608695652</v>
       </c>
       <c r="D16" t="n">
-        <v>114.4782608695652</v>
+        <v>97.30434782608695</v>
       </c>
       <c r="E16" t="n">
-        <v>97.30434782608695</v>
+        <v>127.8</v>
       </c>
       <c r="F16" t="n">
-        <v>127.8</v>
+        <v>109.8636363636364</v>
       </c>
       <c r="G16" t="n">
-        <v>109.8636363636364</v>
+        <v>124.5</v>
       </c>
       <c r="H16" t="n">
-        <v>124.5</v>
+        <v>107.4230769230769</v>
       </c>
       <c r="I16" t="n">
-        <v>107.4230769230769</v>
+        <v>136.8636363636364</v>
       </c>
       <c r="J16" t="n">
-        <v>136.8636363636364</v>
+        <v>0.1443478260869568</v>
       </c>
       <c r="K16" t="n">
-        <v>-30.49565217391304</v>
+        <v>-13.32173913043478</v>
       </c>
       <c r="L16" t="n">
-        <v>-17.31826086956522</v>
+        <v>-2.44055944055944</v>
       </c>
       <c r="M16" t="n">
-        <v>-29.44055944055945</v>
+        <v>-12.36363636363637</v>
       </c>
       <c r="N16" t="n">
-        <v>-14.63636363636364</v>
+        <v>9.923076923076906</v>
       </c>
       <c r="O16" t="n">
-        <v>9.923076923076906</v>
+        <v>13.46608695652174</v>
       </c>
       <c r="P16" t="n">
-        <v>13.46608695652174</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-27.98158710854364</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>23.38916387959867</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>248.68</v>
+      </c>
       <c r="C17" t="n">
-        <v>248.68</v>
+        <v>174.1739130434783</v>
       </c>
       <c r="D17" t="n">
-        <v>174.1739130434783</v>
+        <v>174.9130434782609</v>
       </c>
       <c r="E17" t="n">
-        <v>174.9130434782609</v>
+        <v>178.16</v>
       </c>
       <c r="F17" t="n">
-        <v>178.16</v>
+        <v>172.8571428571429</v>
       </c>
       <c r="G17" t="n">
-        <v>172.8571428571429</v>
+        <v>189.7307692307692</v>
       </c>
       <c r="H17" t="n">
-        <v>189.7307692307692</v>
+        <v>171.3333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>171.3333333333333</v>
+        <v>173.1904761904762</v>
       </c>
       <c r="J17" t="n">
-        <v>173.1904761904762</v>
+        <v>-73.76695652173913</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.246956521739122</v>
+        <v>-3.986086956521746</v>
       </c>
       <c r="L17" t="n">
-        <v>74.50608695652176</v>
+        <v>-1.523809523809518</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.857142857142861</v>
+        <v>16.54029304029302</v>
       </c>
       <c r="N17" t="n">
-        <v>-16.87362637362637</v>
+        <v>-18.06410256410254</v>
       </c>
       <c r="O17" t="n">
-        <v>-18.06410256410254</v>
+        <v>-69.78086956521742</v>
       </c>
       <c r="P17" t="n">
-        <v>-69.78086956521742</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-62.73655996177737</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>-87.84497212931993</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>292.5</v>
+      </c>
       <c r="C18" t="n">
-        <v>292.5</v>
+        <v>127.3846153846154</v>
       </c>
       <c r="D18" t="n">
-        <v>127.3846153846154</v>
+        <v>168.8</v>
       </c>
       <c r="E18" t="n">
-        <v>168.8</v>
+        <v>125.4545454545454</v>
       </c>
       <c r="F18" t="n">
-        <v>125.4545454545454</v>
+        <v>138.24</v>
       </c>
       <c r="G18" t="n">
-        <v>138.24</v>
+        <v>119.5652173913043</v>
       </c>
       <c r="H18" t="n">
-        <v>119.5652173913043</v>
+        <v>141.5652173913043</v>
       </c>
       <c r="I18" t="n">
-        <v>141.5652173913043</v>
+        <v>119.2</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2</v>
+        <v>-123.7</v>
       </c>
       <c r="K18" t="n">
-        <v>43.34545454545457</v>
+        <v>1.930069930069962</v>
       </c>
       <c r="L18" t="n">
-        <v>165.1153846153846</v>
+        <v>3.325217391304335</v>
       </c>
       <c r="M18" t="n">
-        <v>22.36521739130434</v>
+        <v>0.3652173913043413</v>
       </c>
       <c r="N18" t="n">
-        <v>18.67478260869566</v>
+        <v>2.95999999999998</v>
       </c>
       <c r="O18" t="n">
-        <v>2.95999999999998</v>
+        <v>-125.63006993007</v>
       </c>
       <c r="P18" t="n">
-        <v>-125.63006993007</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-118.0794952873213</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>-122.67006993007</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>164.4615384615385</v>
+      </c>
       <c r="C19" t="n">
-        <v>164.4615384615385</v>
+        <v>190.0454545454545</v>
       </c>
       <c r="D19" t="n">
-        <v>190.0454545454545</v>
+        <v>161.6666666666667</v>
       </c>
       <c r="E19" t="n">
-        <v>161.6666666666667</v>
+        <v>184.6153846153846</v>
       </c>
       <c r="F19" t="n">
-        <v>184.6153846153846</v>
+        <v>175.24</v>
       </c>
       <c r="G19" t="n">
-        <v>175.24</v>
+        <v>184.6521739130435</v>
       </c>
       <c r="H19" t="n">
-        <v>184.6521739130435</v>
+        <v>175.5217391304348</v>
       </c>
       <c r="I19" t="n">
-        <v>175.5217391304348</v>
+        <v>184.72</v>
       </c>
       <c r="J19" t="n">
-        <v>184.72</v>
+        <v>-2.794871794871796</v>
       </c>
       <c r="K19" t="n">
-        <v>-22.94871794871796</v>
+        <v>5.430069930069919</v>
       </c>
       <c r="L19" t="n">
-        <v>-25.58391608391608</v>
+        <v>0.2817391304347723</v>
       </c>
       <c r="M19" t="n">
-        <v>-9.198260869565217</v>
+        <v>-0.06782608695652925</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.412173913043461</v>
+        <v>0.3495652173912731</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3495652173912731</v>
+        <v>-8.224941724941687</v>
       </c>
       <c r="P19" t="n">
-        <v>-8.224941724941687</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.849111178676367</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>-7.875376507550413</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>184.32</v>
+      </c>
       <c r="C20" t="n">
-        <v>184.32</v>
+        <v>185.7391304347826</v>
       </c>
       <c r="D20" t="n">
-        <v>185.7391304347826</v>
+        <v>174.4782608695652</v>
       </c>
       <c r="E20" t="n">
-        <v>174.4782608695652</v>
+        <v>183.44</v>
       </c>
       <c r="F20" t="n">
-        <v>183.44</v>
+        <v>179.875</v>
       </c>
       <c r="G20" t="n">
-        <v>179.875</v>
+        <v>175</v>
       </c>
       <c r="H20" t="n">
-        <v>175</v>
+        <v>182.125</v>
       </c>
       <c r="I20" t="n">
-        <v>182.125</v>
+        <v>195.304347826087</v>
       </c>
       <c r="J20" t="n">
-        <v>195.304347826087</v>
+        <v>-9.841739130434775</v>
       </c>
       <c r="K20" t="n">
-        <v>-8.961739130434779</v>
+        <v>2.299130434782597</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.419130434782602</v>
+        <v>2.25</v>
       </c>
       <c r="M20" t="n">
-        <v>-13.17934782608697</v>
+        <v>-20.30434782608697</v>
       </c>
       <c r="N20" t="n">
-        <v>4.875</v>
+        <v>22.554347826087</v>
       </c>
       <c r="O20" t="n">
-        <v>22.554347826087</v>
+        <v>-12.14086956521737</v>
       </c>
       <c r="P20" t="n">
-        <v>-12.14086956521737</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-25.59695652173914</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>10.4134782608696</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>173.6086956521739</v>
+      </c>
       <c r="C21" t="n">
-        <v>173.6086956521739</v>
+        <v>183.76</v>
       </c>
       <c r="D21" t="n">
-        <v>183.76</v>
+        <v>180.3333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>180.3333333333333</v>
+        <v>196.6086956521739</v>
       </c>
       <c r="F21" t="n">
-        <v>196.6086956521739</v>
+        <v>177.96</v>
       </c>
       <c r="G21" t="n">
-        <v>177.96</v>
+        <v>184.1363636363636</v>
       </c>
       <c r="H21" t="n">
-        <v>184.1363636363636</v>
+        <v>178.8695652173913</v>
       </c>
       <c r="I21" t="n">
-        <v>178.8695652173913</v>
+        <v>191.48</v>
       </c>
       <c r="J21" t="n">
-        <v>191.48</v>
+        <v>6.724637681159408</v>
       </c>
       <c r="K21" t="n">
-        <v>-16.27536231884059</v>
+        <v>-12.84869565217392</v>
       </c>
       <c r="L21" t="n">
-        <v>-10.15130434782608</v>
+        <v>0.9095652173913038</v>
       </c>
       <c r="M21" t="n">
-        <v>-12.61043478260868</v>
+        <v>-7.343636363636364</v>
       </c>
       <c r="N21" t="n">
-        <v>-6.176363636363618</v>
+        <v>8.253201581027611</v>
       </c>
       <c r="O21" t="n">
-        <v>8.253201581027611</v>
+        <v>19.57333333333338</v>
       </c>
       <c r="P21" t="n">
-        <v>19.57333333333338</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-12.55812911725957</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>27.82653491436099</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>150.1481481481482</v>
+      </c>
       <c r="C22" t="n">
-        <v>150.1481481481482</v>
+        <v>158.65</v>
       </c>
       <c r="D22" t="n">
-        <v>158.65</v>
+        <v>153.8</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8</v>
+        <v>167.1071428571429</v>
       </c>
       <c r="F22" t="n">
-        <v>167.1071428571429</v>
+        <v>151.5833333333333</v>
       </c>
       <c r="G22" t="n">
-        <v>151.5833333333333</v>
+        <v>165.2083333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2083333333333</v>
+        <v>156.75</v>
       </c>
       <c r="I22" t="n">
-        <v>156.75</v>
+        <v>154.7083333333333</v>
       </c>
       <c r="J22" t="n">
-        <v>154.7083333333333</v>
+        <v>3.651851851851859</v>
       </c>
       <c r="K22" t="n">
-        <v>-13.30714285714285</v>
+        <v>-8.457142857142856</v>
       </c>
       <c r="L22" t="n">
-        <v>-8.501851851851853</v>
+        <v>5.166666666666657</v>
       </c>
       <c r="M22" t="n">
-        <v>2.041666666666657</v>
+        <v>10.5</v>
       </c>
       <c r="N22" t="n">
-        <v>-13.625</v>
+        <v>-5.333333333333314</v>
       </c>
       <c r="O22" t="n">
-        <v>-5.333333333333314</v>
+        <v>12.10899470899471</v>
       </c>
       <c r="P22" t="n">
-        <v>12.10899470899471</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>10.86137566137566</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>6.775661375661372</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>217.3928571428572</v>
+      </c>
       <c r="C23" t="n">
-        <v>217.3928571428572</v>
+        <v>193.45</v>
       </c>
       <c r="D23" t="n">
-        <v>193.45</v>
+        <v>221.1052631578948</v>
       </c>
       <c r="E23" t="n">
-        <v>221.1052631578948</v>
+        <v>193.7407407407408</v>
       </c>
       <c r="F23" t="n">
-        <v>193.7407407407408</v>
+        <v>215.04</v>
       </c>
       <c r="G23" t="n">
-        <v>215.04</v>
+        <v>190</v>
       </c>
       <c r="H23" t="n">
-        <v>190</v>
+        <v>225.1739130434783</v>
       </c>
       <c r="I23" t="n">
-        <v>225.1739130434783</v>
+        <v>188.6363636363636</v>
       </c>
       <c r="J23" t="n">
-        <v>188.6363636363636</v>
+        <v>3.712406015037601</v>
       </c>
       <c r="K23" t="n">
-        <v>27.36452241715401</v>
+        <v>-0.2907407407407732</v>
       </c>
       <c r="L23" t="n">
-        <v>23.94285714285718</v>
+        <v>10.13391304347826</v>
       </c>
       <c r="M23" t="n">
-        <v>36.53754940711462</v>
+        <v>1.363636363636374</v>
       </c>
       <c r="N23" t="n">
-        <v>25.03999999999999</v>
+        <v>8.770276679841913</v>
       </c>
       <c r="O23" t="n">
-        <v>8.770276679841913</v>
+        <v>4.003146755778403</v>
       </c>
       <c r="P23" t="n">
-        <v>4.003146755778403</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>14.91921468141146</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>12.77342343562026</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>198.8</v>
+      </c>
       <c r="C24" t="n">
-        <v>198.8</v>
+        <v>186.5555555555556</v>
       </c>
       <c r="D24" t="n">
-        <v>186.5555555555556</v>
+        <v>194.4814814814815</v>
       </c>
       <c r="E24" t="n">
-        <v>194.4814814814815</v>
+        <v>185.047619047619</v>
       </c>
       <c r="F24" t="n">
-        <v>185.047619047619</v>
+        <v>177.1428571428571</v>
       </c>
       <c r="G24" t="n">
-        <v>177.1428571428571</v>
+        <v>191.1052631578948</v>
       </c>
       <c r="H24" t="n">
-        <v>191.1052631578948</v>
+        <v>181.2352941176471</v>
       </c>
       <c r="I24" t="n">
-        <v>181.2352941176471</v>
+        <v>192.2758620689655</v>
       </c>
       <c r="J24" t="n">
-        <v>192.2758620689655</v>
+        <v>-4.318518518518516</v>
       </c>
       <c r="K24" t="n">
-        <v>9.433862433862458</v>
+        <v>1.507936507936535</v>
       </c>
       <c r="L24" t="n">
-        <v>12.24444444444444</v>
+        <v>4.092436974789933</v>
       </c>
       <c r="M24" t="n">
-        <v>-11.04056795131845</v>
+        <v>-1.170598911070755</v>
       </c>
       <c r="N24" t="n">
-        <v>-13.96240601503763</v>
+        <v>5.263035885860688</v>
       </c>
       <c r="O24" t="n">
-        <v>5.263035885860688</v>
+        <v>-5.826455026455051</v>
       </c>
       <c r="P24" t="n">
-        <v>-5.826455026455051</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.1112560531371969</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>-0.5634191405943625</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>174.875</v>
+      </c>
       <c r="C25" t="n">
-        <v>174.875</v>
+        <v>171.2916666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>171.2916666666667</v>
+        <v>176.1666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>176.1666666666667</v>
+        <v>171.1666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>171.1666666666667</v>
+        <v>191.25</v>
       </c>
       <c r="G25" t="n">
-        <v>191.25</v>
+        <v>191.7083333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>191.7083333333333</v>
+        <v>186.4166666666666</v>
       </c>
       <c r="I25" t="n">
-        <v>186.4166666666666</v>
+        <v>198.625</v>
       </c>
       <c r="J25" t="n">
-        <v>198.625</v>
+        <v>1.291666666666657</v>
       </c>
       <c r="K25" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-4.833333333333371</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-6.916666666666686</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.083333333333314</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.166666666666686</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.249999999999972</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>管笑啸</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>5</v>
       </c>
-      <c r="L25" t="n">
-        <v>3.583333333333343</v>
-      </c>
-      <c r="M25" t="n">
-        <v>-12.20833333333337</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-0.4583333333333144</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2.083333333333314</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.166666666666686</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-10.3333333333334</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>管笑啸</t>
-        </is>
-      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>141.3214285714286</v>
+      </c>
       <c r="C26" t="n">
-        <v>141.3214285714286</v>
+        <v>147.35</v>
       </c>
       <c r="D26" t="n">
-        <v>147.35</v>
+        <v>140.65</v>
       </c>
       <c r="E26" t="n">
-        <v>140.65</v>
+        <v>146.25</v>
       </c>
       <c r="F26" t="n">
-        <v>146.25</v>
+        <v>151.2173913043478</v>
       </c>
       <c r="G26" t="n">
-        <v>151.2173913043478</v>
+        <v>158.08</v>
       </c>
       <c r="H26" t="n">
-        <v>158.08</v>
+        <v>146.52</v>
       </c>
       <c r="I26" t="n">
-        <v>146.52</v>
+        <v>156.5217391304348</v>
       </c>
       <c r="J26" t="n">
-        <v>156.5217391304348</v>
+        <v>-0.6714285714285779</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.599999999999994</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="L26" t="n">
-        <v>-6.028571428571411</v>
+        <v>-4.697391304347803</v>
       </c>
       <c r="M26" t="n">
-        <v>-10.00173913043477</v>
+        <v>1.558260869565231</v>
       </c>
       <c r="N26" t="n">
-        <v>-6.862608695652199</v>
+        <v>-6.255652173913006</v>
       </c>
       <c r="O26" t="n">
-        <v>-6.255652173913006</v>
+        <v>-1.771428571428601</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.771428571428601</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-2.710559006211156</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>-8.027080745341607</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>179.84</v>
+      </c>
       <c r="C27" t="n">
-        <v>179.84</v>
+        <v>162.0434782608696</v>
       </c>
       <c r="D27" t="n">
-        <v>162.0434782608696</v>
+        <v>224.9130434782609</v>
       </c>
       <c r="E27" t="n">
-        <v>224.9130434782609</v>
+        <v>164.08</v>
       </c>
       <c r="F27" t="n">
-        <v>164.08</v>
+        <v>198.1923076923077</v>
       </c>
       <c r="G27" t="n">
-        <v>198.1923076923077</v>
+        <v>175.3636363636364</v>
       </c>
       <c r="H27" t="n">
-        <v>175.3636363636364</v>
+        <v>204.3181818181818</v>
       </c>
       <c r="I27" t="n">
-        <v>204.3181818181818</v>
+        <v>174.3846153846154</v>
       </c>
       <c r="J27" t="n">
-        <v>174.3846153846154</v>
+        <v>45.07304347826087</v>
       </c>
       <c r="K27" t="n">
-        <v>60.83304347826086</v>
+        <v>-2.03652173913045</v>
       </c>
       <c r="L27" t="n">
-        <v>17.79652173913044</v>
+        <v>6.125874125874134</v>
       </c>
       <c r="M27" t="n">
-        <v>29.93356643356643</v>
+        <v>0.9790209790209872</v>
       </c>
       <c r="N27" t="n">
-        <v>22.82867132867131</v>
+        <v>5.146853146853175</v>
       </c>
       <c r="O27" t="n">
-        <v>5.146853146853175</v>
+        <v>47.10956521739138</v>
       </c>
       <c r="P27" t="n">
-        <v>47.10956521739138</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>50.14141684402554</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>52.25641836424447</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>208.5714285714286</v>
+      </c>
       <c r="C28" t="n">
-        <v>208.5714285714286</v>
+        <v>199.55</v>
       </c>
       <c r="D28" t="n">
-        <v>199.55</v>
+        <v>204.2</v>
       </c>
       <c r="E28" t="n">
-        <v>204.2</v>
+        <v>207.9642857142857</v>
       </c>
       <c r="F28" t="n">
-        <v>207.9642857142857</v>
+        <v>212.6551724137931</v>
       </c>
       <c r="G28" t="n">
-        <v>212.6551724137931</v>
+        <v>201.8421052631579</v>
       </c>
       <c r="H28" t="n">
-        <v>201.8421052631579</v>
+        <v>215.8421052631579</v>
       </c>
       <c r="I28" t="n">
-        <v>215.8421052631579</v>
+        <v>206.5862068965517</v>
       </c>
       <c r="J28" t="n">
-        <v>206.5862068965517</v>
+        <v>-4.371428571428567</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.764285714285705</v>
+        <v>-8.414285714285683</v>
       </c>
       <c r="L28" t="n">
-        <v>9.021428571428544</v>
+        <v>3.18693284936478</v>
       </c>
       <c r="M28" t="n">
-        <v>9.255898366606203</v>
+        <v>-4.744101633393797</v>
       </c>
       <c r="N28" t="n">
-        <v>10.81306715063522</v>
+        <v>7.931034482758548</v>
       </c>
       <c r="O28" t="n">
-        <v>7.931034482758548</v>
+        <v>4.042857142857144</v>
       </c>
       <c r="P28" t="n">
-        <v>4.042857142857144</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>-14.34288306974327</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>11.97389162561569</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>167.0416666666667</v>
+      </c>
       <c r="C29" t="n">
-        <v>167.0416666666667</v>
+        <v>188.375</v>
       </c>
       <c r="D29" t="n">
-        <v>188.375</v>
+        <v>179.7916666666667</v>
       </c>
       <c r="E29" t="n">
-        <v>179.7916666666667</v>
+        <v>192.3913043478261</v>
       </c>
       <c r="F29" t="n">
-        <v>192.3913043478261</v>
+        <v>177.1363636363636</v>
       </c>
       <c r="G29" t="n">
-        <v>177.1363636363636</v>
+        <v>178.0769230769231</v>
       </c>
       <c r="H29" t="n">
-        <v>178.0769230769231</v>
+        <v>180.3076923076923</v>
       </c>
       <c r="I29" t="n">
-        <v>180.3076923076923</v>
+        <v>172.3809523809524</v>
       </c>
       <c r="J29" t="n">
-        <v>172.3809523809524</v>
+        <v>12.75</v>
       </c>
       <c r="K29" t="n">
-        <v>-12.59963768115944</v>
+        <v>-4.016304347826093</v>
       </c>
       <c r="L29" t="n">
-        <v>-21.33333333333334</v>
+        <v>3.171328671328695</v>
       </c>
       <c r="M29" t="n">
-        <v>7.926739926739941</v>
+        <v>5.695970695970686</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.94055944055944</v>
+        <v>-2.524642024642048</v>
       </c>
       <c r="O29" t="n">
-        <v>-2.524642024642048</v>
+        <v>16.76630434782612</v>
       </c>
       <c r="P29" t="n">
-        <v>16.76630434782612</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>17.60099501947329</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>14.2416623231841</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>170.1379310344828</v>
+      </c>
       <c r="C30" t="n">
-        <v>170.1379310344828</v>
+        <v>202.4736842105264</v>
       </c>
       <c r="D30" t="n">
-        <v>202.4736842105264</v>
+        <v>180.8421052631579</v>
       </c>
       <c r="E30" t="n">
-        <v>180.8421052631579</v>
+        <v>210.9310344827586</v>
       </c>
       <c r="F30" t="n">
-        <v>210.9310344827586</v>
+        <v>198.6</v>
       </c>
       <c r="G30" t="n">
-        <v>198.6</v>
+        <v>209</v>
       </c>
       <c r="H30" t="n">
-        <v>209</v>
+        <v>186.1739130434783</v>
       </c>
       <c r="I30" t="n">
-        <v>186.1739130434783</v>
+        <v>207.4</v>
       </c>
       <c r="J30" t="n">
-        <v>207.4</v>
+        <v>10.70417422867513</v>
       </c>
       <c r="K30" t="n">
-        <v>-30.08892921960074</v>
+        <v>-8.457350272232276</v>
       </c>
       <c r="L30" t="n">
-        <v>-32.3357531760436</v>
+        <v>-12.42608695652174</v>
       </c>
       <c r="M30" t="n">
-        <v>-21.22608695652175</v>
+        <v>1.599999999999994</v>
       </c>
       <c r="N30" t="n">
-        <v>-10.40000000000001</v>
+        <v>-14.02608695652179</v>
       </c>
       <c r="O30" t="n">
-        <v>-14.02608695652179</v>
+        <v>19.16152450090738</v>
       </c>
       <c r="P30" t="n">
-        <v>19.16152450090738</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-8.579263000078896</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>5.135437544385667</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>146.9130434782609</v>
+      </c>
       <c r="C31" t="n">
-        <v>146.9130434782609</v>
+        <v>173.4</v>
       </c>
       <c r="D31" t="n">
-        <v>173.4</v>
+        <v>162.68</v>
       </c>
       <c r="E31" t="n">
-        <v>162.68</v>
+        <v>177.7391304347826</v>
       </c>
       <c r="F31" t="n">
-        <v>177.7391304347826</v>
+        <v>187.0869565217392</v>
       </c>
       <c r="G31" t="n">
-        <v>187.0869565217392</v>
+        <v>166.08</v>
       </c>
       <c r="H31" t="n">
-        <v>166.08</v>
+        <v>175.6086956521739</v>
       </c>
       <c r="I31" t="n">
-        <v>175.6086956521739</v>
+        <v>164.8181818181818</v>
       </c>
       <c r="J31" t="n">
-        <v>164.8181818181818</v>
+        <v>15.76695652173913</v>
       </c>
       <c r="K31" t="n">
-        <v>-15.05913043478259</v>
+        <v>-4.339130434782589</v>
       </c>
       <c r="L31" t="n">
-        <v>-26.48695652173913</v>
+        <v>-11.47826086956525</v>
       </c>
       <c r="M31" t="n">
-        <v>10.79051383399209</v>
+        <v>1.261818181818199</v>
       </c>
       <c r="N31" t="n">
-        <v>21.00695652173914</v>
+        <v>-12.74007905138342</v>
       </c>
       <c r="O31" t="n">
-        <v>-12.74007905138342</v>
+        <v>20.10608695652172</v>
       </c>
       <c r="P31" t="n">
-        <v>20.10608695652172</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.211383399209495</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>7.366007905138275</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>189.6086956521739</v>
+      </c>
       <c r="C32" t="n">
-        <v>189.6086956521739</v>
+        <v>185.2</v>
       </c>
       <c r="D32" t="n">
-        <v>185.2</v>
+        <v>205.32</v>
       </c>
       <c r="E32" t="n">
-        <v>205.32</v>
+        <v>184.2173913043478</v>
       </c>
       <c r="F32" t="n">
-        <v>184.2173913043478</v>
+        <v>180.0869565217391</v>
       </c>
       <c r="G32" t="n">
-        <v>180.0869565217391</v>
+        <v>176.92</v>
       </c>
       <c r="H32" t="n">
-        <v>176.92</v>
+        <v>179.32</v>
       </c>
       <c r="I32" t="n">
-        <v>179.32</v>
+        <v>219.7391304347826</v>
       </c>
       <c r="J32" t="n">
-        <v>219.7391304347826</v>
+        <v>15.71130434782609</v>
       </c>
       <c r="K32" t="n">
-        <v>21.10260869565218</v>
+        <v>0.9826086956521749</v>
       </c>
       <c r="L32" t="n">
-        <v>4.408695652173918</v>
+        <v>-0.7669565217391323</v>
       </c>
       <c r="M32" t="n">
-        <v>-40.4191304347826</v>
+        <v>-42.81913043478261</v>
       </c>
       <c r="N32" t="n">
-        <v>3.166956521739138</v>
+        <v>42.05217391304348</v>
       </c>
       <c r="O32" t="n">
-        <v>42.05217391304348</v>
+        <v>14.72869565217388</v>
       </c>
       <c r="P32" t="n">
-        <v>14.72869565217388</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-26.89217391304348</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>56.78086956521739</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>167.5416666666667</v>
+      </c>
       <c r="C33" t="n">
-        <v>167.5416666666667</v>
+        <v>145.1666666666667</v>
       </c>
       <c r="D33" t="n">
-        <v>145.1666666666667</v>
+        <v>170</v>
       </c>
       <c r="E33" t="n">
-        <v>170</v>
+        <v>141.8333333333333</v>
       </c>
       <c r="F33" t="n">
-        <v>141.8333333333333</v>
+        <v>180.7826086956522</v>
       </c>
       <c r="G33" t="n">
-        <v>180.7826086956522</v>
+        <v>154.0833333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>154.0833333333333</v>
+        <v>165.84</v>
       </c>
       <c r="I33" t="n">
-        <v>165.84</v>
+        <v>144.7391304347826</v>
       </c>
       <c r="J33" t="n">
-        <v>144.7391304347826</v>
+        <v>2.458333333333343</v>
       </c>
       <c r="K33" t="n">
-        <v>28.16666666666666</v>
+        <v>3.333333333333314</v>
       </c>
       <c r="L33" t="n">
-        <v>22.375</v>
+        <v>-14.94260869565218</v>
       </c>
       <c r="M33" t="n">
-        <v>21.10086956521741</v>
+        <v>9.344202898550748</v>
       </c>
       <c r="N33" t="n">
-        <v>26.69927536231884</v>
+        <v>-24.2868115942029</v>
       </c>
       <c r="O33" t="n">
-        <v>-24.2868115942029</v>
+        <v>-0.8749999999999432</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.8749999999999432</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.193260869565222</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>-25.1618115942029</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>166.1</v>
+      </c>
       <c r="C34" t="n">
-        <v>166.1</v>
+        <v>190.0357142857143</v>
       </c>
       <c r="D34" t="n">
-        <v>190.0357142857143</v>
+        <v>160.7857142857143</v>
       </c>
       <c r="E34" t="n">
-        <v>160.7857142857143</v>
+        <v>199.45</v>
       </c>
       <c r="F34" t="n">
-        <v>199.45</v>
+        <v>161.2173913043478</v>
       </c>
       <c r="G34" t="n">
-        <v>161.2173913043478</v>
+        <v>191.28</v>
       </c>
       <c r="H34" t="n">
-        <v>191.28</v>
+        <v>175.56</v>
       </c>
       <c r="I34" t="n">
-        <v>175.56</v>
+        <v>198.8260869565217</v>
       </c>
       <c r="J34" t="n">
-        <v>198.8260869565217</v>
+        <v>-5.314285714285717</v>
       </c>
       <c r="K34" t="n">
-        <v>-38.66428571428571</v>
+        <v>-9.414285714285711</v>
       </c>
       <c r="L34" t="n">
-        <v>-23.93571428571428</v>
+        <v>14.34260869565219</v>
       </c>
       <c r="M34" t="n">
-        <v>-23.26608695652172</v>
+        <v>-7.546086956521719</v>
       </c>
       <c r="N34" t="n">
-        <v>-30.06260869565219</v>
+        <v>21.88869565217385</v>
       </c>
       <c r="O34" t="n">
-        <v>21.88869565217385</v>
+        <v>4.100000000000023</v>
       </c>
       <c r="P34" t="n">
-        <v>4.100000000000023</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-7.932049689440959</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>25.9886956521739</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>185.1304347826087</v>
+      </c>
       <c r="C35" t="n">
-        <v>185.1304347826087</v>
+        <v>257.48</v>
       </c>
       <c r="D35" t="n">
-        <v>257.48</v>
+        <v>206.8333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>206.8333333333333</v>
+        <v>350.2608695652174</v>
       </c>
       <c r="F35" t="n">
-        <v>350.2608695652174</v>
+        <v>186.7826086956522</v>
       </c>
       <c r="G35" t="n">
-        <v>186.7826086956522</v>
+        <v>196.56</v>
       </c>
       <c r="H35" t="n">
-        <v>196.56</v>
+        <v>182.75</v>
       </c>
       <c r="I35" t="n">
-        <v>182.75</v>
+        <v>180.695652173913</v>
       </c>
       <c r="J35" t="n">
-        <v>180.695652173913</v>
+        <v>21.70289855072463</v>
       </c>
       <c r="K35" t="n">
-        <v>-143.4275362318841</v>
+        <v>-92.78086956521736</v>
       </c>
       <c r="L35" t="n">
-        <v>-72.34956521739133</v>
+        <v>-4.032608695652186</v>
       </c>
       <c r="M35" t="n">
-        <v>2.054347826086968</v>
+        <v>15.86434782608697</v>
       </c>
       <c r="N35" t="n">
-        <v>-9.777391304347816</v>
+        <v>-19.89695652173918</v>
       </c>
       <c r="O35" t="n">
-        <v>-19.89695652173918</v>
+        <v>114.483768115942</v>
       </c>
       <c r="P35" t="n">
-        <v>114.483768115942</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-59.24623188405795</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>94.58681159420283</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>155.1666666666667</v>
+      </c>
       <c r="C36" t="n">
-        <v>155.1666666666667</v>
+        <v>155</v>
       </c>
       <c r="D36" t="n">
-        <v>155</v>
+        <v>154.9166666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>154.9166666666667</v>
+        <v>151.375</v>
       </c>
       <c r="F36" t="n">
-        <v>151.375</v>
+        <v>162.8461538461538</v>
       </c>
       <c r="G36" t="n">
-        <v>162.8461538461538</v>
+        <v>169.6363636363636</v>
       </c>
       <c r="H36" t="n">
-        <v>169.6363636363636</v>
+        <v>168.6363636363636</v>
       </c>
       <c r="I36" t="n">
-        <v>168.6363636363636</v>
+        <v>174.7692307692308</v>
       </c>
       <c r="J36" t="n">
-        <v>174.7692307692308</v>
+        <v>-0.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.541666666666657</v>
+        <v>3.625</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1666666666666572</v>
+        <v>5.790209790209786</v>
       </c>
       <c r="M36" t="n">
-        <v>-6.132867132867148</v>
+        <v>-5.132867132867148</v>
       </c>
       <c r="N36" t="n">
-        <v>-6.790209790209786</v>
+        <v>10.92307692307696</v>
       </c>
       <c r="O36" t="n">
-        <v>10.92307692307696</v>
+        <v>-3.875</v>
       </c>
       <c r="P36" t="n">
-        <v>-3.875</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4.032342657342639</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>7.048076923076934</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>145.6363636363636</v>
+      </c>
       <c r="C37" t="n">
-        <v>145.6363636363636</v>
+        <v>177.8461538461538</v>
       </c>
       <c r="D37" t="n">
-        <v>177.8461538461538</v>
+        <v>156.1153846153846</v>
       </c>
       <c r="E37" t="n">
-        <v>156.1153846153846</v>
+        <v>166.0454545454545</v>
       </c>
       <c r="F37" t="n">
-        <v>166.0454545454545</v>
+        <v>161.1666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1666666666667</v>
+        <v>170.125</v>
       </c>
       <c r="H37" t="n">
-        <v>170.125</v>
+        <v>161.5416666666667</v>
       </c>
       <c r="I37" t="n">
-        <v>161.5416666666667</v>
+        <v>169.125</v>
       </c>
       <c r="J37" t="n">
-        <v>169.125</v>
+        <v>10.47902097902099</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.930069930069919</v>
+        <v>11.80069930069931</v>
       </c>
       <c r="L37" t="n">
-        <v>-32.20979020979021</v>
+        <v>0.375</v>
       </c>
       <c r="M37" t="n">
-        <v>-7.583333333333343</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>-8.958333333333343</v>
+        <v>-0.625</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.625</v>
+        <v>-1.321678321678291</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.321678321678291</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>23.65472027972029</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>-1.94667832167832</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>176.8181818181818</v>
+      </c>
       <c r="C38" t="n">
-        <v>176.8181818181818</v>
+        <v>332.3181818181818</v>
       </c>
       <c r="D38" t="n">
-        <v>332.3181818181818</v>
+        <v>391</v>
       </c>
       <c r="E38" t="n">
-        <v>391</v>
+        <v>250.45</v>
       </c>
       <c r="F38" t="n">
-        <v>250.45</v>
+        <v>235</v>
       </c>
       <c r="G38" t="n">
-        <v>235</v>
+        <v>229.3333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>229.3333333333333</v>
+        <v>304</v>
       </c>
       <c r="I38" t="n">
-        <v>304</v>
+        <v>239.4761904761905</v>
       </c>
       <c r="J38" t="n">
-        <v>239.4761904761905</v>
+        <v>214.1818181818182</v>
       </c>
       <c r="K38" t="n">
-        <v>140.55</v>
+        <v>81.86818181818182</v>
       </c>
       <c r="L38" t="n">
-        <v>-155.5</v>
+        <v>69</v>
       </c>
       <c r="M38" t="n">
-        <v>64.52380952380952</v>
+        <v>-10.14285714285717</v>
       </c>
       <c r="N38" t="n">
-        <v>5.666666666666686</v>
+        <v>79.14285714285717</v>
       </c>
       <c r="O38" t="n">
-        <v>79.14285714285717</v>
+        <v>132.3136363636364</v>
       </c>
       <c r="P38" t="n">
-        <v>132.3136363636364</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>354.9071428571428</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>211.4564935064935</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>167.8636363636364</v>
+      </c>
       <c r="C39" t="n">
-        <v>167.8636363636364</v>
+        <v>164.6923076923077</v>
       </c>
       <c r="D39" t="n">
-        <v>164.6923076923077</v>
+        <v>168.2692307692308</v>
       </c>
       <c r="E39" t="n">
-        <v>168.2692307692308</v>
+        <v>166.5454545454545</v>
       </c>
       <c r="F39" t="n">
-        <v>166.5454545454545</v>
+        <v>166.9615384615385</v>
       </c>
       <c r="G39" t="n">
-        <v>166.9615384615385</v>
+        <v>174.4090909090909</v>
       </c>
       <c r="H39" t="n">
-        <v>174.4090909090909</v>
+        <v>162.8181818181818</v>
       </c>
       <c r="I39" t="n">
-        <v>162.8181818181818</v>
+        <v>173.5769230769231</v>
       </c>
       <c r="J39" t="n">
-        <v>173.5769230769231</v>
+        <v>0.4055944055943996</v>
       </c>
       <c r="K39" t="n">
-        <v>1.723776223776241</v>
+        <v>-1.853146853146853</v>
       </c>
       <c r="L39" t="n">
-        <v>3.171328671328695</v>
+        <v>-4.14335664335664</v>
       </c>
       <c r="M39" t="n">
-        <v>-10.75874125874125</v>
+        <v>0.8321678321678405</v>
       </c>
       <c r="N39" t="n">
-        <v>-7.447552447552454</v>
+        <v>-4.97552447552448</v>
       </c>
       <c r="O39" t="n">
-        <v>-4.97552447552448</v>
+        <v>2.258741258741281</v>
       </c>
       <c r="P39" t="n">
-        <v>2.258741258741281</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>-4.758741258741253</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>-2.716783216783227</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>134.3333333333333</v>
+      </c>
       <c r="C40" t="n">
-        <v>134.3333333333333</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="D40" t="n">
-        <v>143.3333333333333</v>
+        <v>139.3461538461538</v>
       </c>
       <c r="E40" t="n">
-        <v>139.3461538461538</v>
+        <v>150.7142857142857</v>
       </c>
       <c r="F40" t="n">
-        <v>150.7142857142857</v>
+        <v>138.0909090909091</v>
       </c>
       <c r="G40" t="n">
-        <v>138.0909090909091</v>
+        <v>140.4230769230769</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4230769230769</v>
+        <v>139</v>
       </c>
       <c r="I40" t="n">
-        <v>139</v>
+        <v>140.5</v>
       </c>
       <c r="J40" t="n">
-        <v>140.5</v>
+        <v>5.012820512820497</v>
       </c>
       <c r="K40" t="n">
-        <v>-11.36813186813188</v>
+        <v>-7.38095238095238</v>
       </c>
       <c r="L40" t="n">
-        <v>-9</v>
+        <v>0.9090909090909065</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.5</v>
+        <v>-0.07692307692306599</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.332167832167841</v>
+        <v>0.9860139860139725</v>
       </c>
       <c r="O40" t="n">
-        <v>0.9860139860139725</v>
+        <v>12.3937728937729</v>
       </c>
       <c r="P40" t="n">
-        <v>12.3937728937729</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-1.535964035964042</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>13.37978687978685</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>194.75</v>
+      </c>
       <c r="C41" t="n">
-        <v>194.75</v>
+        <v>179.125</v>
       </c>
       <c r="D41" t="n">
-        <v>179.125</v>
+        <v>186.4166666666666</v>
       </c>
       <c r="E41" t="n">
-        <v>186.4166666666666</v>
+        <v>180.7391304347826</v>
       </c>
       <c r="F41" t="n">
-        <v>180.7391304347826</v>
+        <v>173.5294117647059</v>
       </c>
       <c r="G41" t="n">
-        <v>173.5294117647059</v>
+        <v>198.1612903225806</v>
       </c>
       <c r="H41" t="n">
-        <v>198.1612903225806</v>
+        <v>211.9354838709677</v>
       </c>
       <c r="I41" t="n">
-        <v>211.9354838709677</v>
+        <v>209.6470588235294</v>
       </c>
       <c r="J41" t="n">
-        <v>209.6470588235294</v>
+        <v>-8.333333333333371</v>
       </c>
       <c r="K41" t="n">
-        <v>5.677536231884034</v>
+        <v>-1.614130434782595</v>
       </c>
       <c r="L41" t="n">
-        <v>15.625</v>
+        <v>38.40607210626183</v>
       </c>
       <c r="M41" t="n">
-        <v>2.288425047438267</v>
+        <v>-11.48576850094881</v>
       </c>
       <c r="N41" t="n">
-        <v>-24.63187855787476</v>
+        <v>49.89184060721067</v>
       </c>
       <c r="O41" t="n">
-        <v>49.89184060721067</v>
+        <v>-6.719202898550748</v>
       </c>
       <c r="P41" t="n">
-        <v>-6.719202898550748</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>16.97283983719706</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>43.17263770865986</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>162.56</v>
+      </c>
       <c r="C42" t="n">
-        <v>162.56</v>
+        <v>177.8695652173913</v>
       </c>
       <c r="D42" t="n">
-        <v>177.8695652173913</v>
+        <v>159.3913043478261</v>
       </c>
       <c r="E42" t="n">
-        <v>159.3913043478261</v>
+        <v>157.68</v>
       </c>
       <c r="F42" t="n">
-        <v>157.68</v>
+        <v>185.1111111111111</v>
       </c>
       <c r="G42" t="n">
-        <v>185.1111111111111</v>
+        <v>196.8571428571429</v>
       </c>
       <c r="H42" t="n">
-        <v>196.8571428571429</v>
+        <v>157.6190476190476</v>
       </c>
       <c r="I42" t="n">
-        <v>157.6190476190476</v>
+        <v>317.7037037037037</v>
       </c>
       <c r="J42" t="n">
-        <v>317.7037037037037</v>
+        <v>-3.168695652173909</v>
       </c>
       <c r="K42" t="n">
-        <v>1.711304347826086</v>
+        <v>20.1895652173913</v>
       </c>
       <c r="L42" t="n">
-        <v>-15.30956521739131</v>
+        <v>-27.49206349206349</v>
       </c>
       <c r="M42" t="n">
-        <v>-160.0846560846561</v>
+        <v>-120.8465608465608</v>
       </c>
       <c r="N42" t="n">
-        <v>-11.74603174603178</v>
+        <v>93.35449735449731</v>
       </c>
       <c r="O42" t="n">
-        <v>93.35449735449731</v>
+        <v>-23.35826086956524</v>
       </c>
       <c r="P42" t="n">
-        <v>-23.35826086956524</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-131.3177547734069</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>69.9962364849321</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>166.8846153846154</v>
+      </c>
       <c r="C43" t="n">
-        <v>166.8846153846154</v>
+        <v>158.1363636363636</v>
       </c>
       <c r="D43" t="n">
-        <v>158.1363636363636</v>
+        <v>172</v>
       </c>
       <c r="E43" t="n">
-        <v>172</v>
+        <v>157.8461538461538</v>
       </c>
       <c r="F43" t="n">
-        <v>157.8461538461538</v>
+        <v>168.2916666666667</v>
       </c>
       <c r="G43" t="n">
-        <v>168.2916666666667</v>
+        <v>178.2083333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>178.2083333333333</v>
+        <v>213.1666666666666</v>
       </c>
       <c r="I43" t="n">
-        <v>213.1666666666666</v>
+        <v>166.2173913043478</v>
       </c>
       <c r="J43" t="n">
-        <v>166.2173913043478</v>
+        <v>5.115384615384613</v>
       </c>
       <c r="K43" t="n">
-        <v>14.15384615384616</v>
+        <v>0.2902097902097864</v>
       </c>
       <c r="L43" t="n">
-        <v>8.748251748251761</v>
+        <v>44.87499999999997</v>
       </c>
       <c r="M43" t="n">
-        <v>46.94927536231882</v>
+        <v>11.99094202898553</v>
       </c>
       <c r="N43" t="n">
-        <v>-9.916666666666686</v>
+        <v>32.88405797101444</v>
       </c>
       <c r="O43" t="n">
-        <v>32.88405797101444</v>
+        <v>4.825174825174827</v>
       </c>
       <c r="P43" t="n">
-        <v>4.825174825174827</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>62.2715364345799</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>37.70923279618927</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>171.2307692307692</v>
+      </c>
       <c r="C44" t="n">
-        <v>171.2307692307692</v>
+        <v>170.8636363636364</v>
       </c>
       <c r="D44" t="n">
-        <v>170.8636363636364</v>
+        <v>161.6363636363636</v>
       </c>
       <c r="E44" t="n">
-        <v>161.6363636363636</v>
+        <v>170.0769230769231</v>
       </c>
       <c r="F44" t="n">
-        <v>170.0769230769231</v>
+        <v>167.4782608695652</v>
       </c>
       <c r="G44" t="n">
-        <v>167.4782608695652</v>
+        <v>177.28</v>
       </c>
       <c r="H44" t="n">
-        <v>177.28</v>
+        <v>156.8</v>
       </c>
       <c r="I44" t="n">
-        <v>156.8</v>
+        <v>174.8260869565217</v>
       </c>
       <c r="J44" t="n">
-        <v>174.8260869565217</v>
+        <v>-9.5944055944056</v>
       </c>
       <c r="K44" t="n">
-        <v>-8.44055944055944</v>
+        <v>0.786713286713308</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3671328671328524</v>
+        <v>-10.67826086956521</v>
       </c>
       <c r="M44" t="n">
-        <v>-18.02608695652174</v>
+        <v>2.453913043478252</v>
       </c>
       <c r="N44" t="n">
-        <v>-9.801739130434783</v>
+        <v>-13.13217391304346</v>
       </c>
       <c r="O44" t="n">
-        <v>-13.13217391304346</v>
+        <v>-10.38111888111888</v>
       </c>
       <c r="P44" t="n">
-        <v>-10.38111888111888</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-17.03204013377925</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>-23.51329279416237</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>160.6818181818182</v>
+      </c>
       <c r="C45" t="n">
-        <v>160.6818181818182</v>
+        <v>148.6153846153846</v>
       </c>
       <c r="D45" t="n">
-        <v>148.6153846153846</v>
+        <v>152</v>
       </c>
       <c r="E45" t="n">
-        <v>152</v>
+        <v>152.0454545454545</v>
       </c>
       <c r="F45" t="n">
-        <v>152.0454545454545</v>
+        <v>170.0869565217391</v>
       </c>
       <c r="G45" t="n">
-        <v>170.0869565217391</v>
+        <v>169.6</v>
       </c>
       <c r="H45" t="n">
-        <v>169.6</v>
+        <v>176</v>
       </c>
       <c r="I45" t="n">
-        <v>176</v>
+        <v>175.9130434782609</v>
       </c>
       <c r="J45" t="n">
-        <v>175.9130434782609</v>
+        <v>-8.681818181818187</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.04545454545453254</v>
+        <v>-3.430069930069919</v>
       </c>
       <c r="L45" t="n">
-        <v>12.06643356643357</v>
+        <v>5.913043478260875</v>
       </c>
       <c r="M45" t="n">
-        <v>0.08695652173912549</v>
+        <v>-6.31304347826088</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4869565217391312</v>
+        <v>12.22608695652173</v>
       </c>
       <c r="O45" t="n">
-        <v>12.22608695652173</v>
+        <v>-5.251748251748268</v>
       </c>
       <c r="P45" t="n">
-        <v>-5.251748251748268</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-12.51188811188811</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>6.974338704773487</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>179.5555555555555</v>
+      </c>
       <c r="C46" t="n">
-        <v>179.5555555555555</v>
+        <v>157.1428571428571</v>
       </c>
       <c r="D46" t="n">
-        <v>157.1428571428571</v>
+        <v>170.5238095238095</v>
       </c>
       <c r="E46" t="n">
-        <v>170.5238095238095</v>
+        <v>159.4814814814815</v>
       </c>
       <c r="F46" t="n">
-        <v>159.4814814814815</v>
+        <v>175.0769230769231</v>
       </c>
       <c r="G46" t="n">
-        <v>175.0769230769231</v>
+        <v>161.3333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>161.3333333333333</v>
+        <v>182.3636363636364</v>
       </c>
       <c r="I46" t="n">
-        <v>182.3636363636364</v>
+        <v>157</v>
       </c>
       <c r="J46" t="n">
-        <v>157</v>
+        <v>-9.031746031746025</v>
       </c>
       <c r="K46" t="n">
-        <v>11.04232804232802</v>
+        <v>-2.338624338624356</v>
       </c>
       <c r="L46" t="n">
-        <v>22.4126984126984</v>
+        <v>7.286713286713336</v>
       </c>
       <c r="M46" t="n">
-        <v>25.3636363636364</v>
+        <v>4.333333333333343</v>
       </c>
       <c r="N46" t="n">
-        <v>13.74358974358972</v>
+        <v>2.953379953379965</v>
       </c>
       <c r="O46" t="n">
-        <v>2.953379953379965</v>
+        <v>-6.693121693121611</v>
       </c>
       <c r="P46" t="n">
-        <v>-6.693121693121611</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.2496762496762983</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>-3.739741739741675</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>200.9615384615385</v>
+      </c>
       <c r="C47" t="n">
-        <v>200.9615384615385</v>
+        <v>180.3181818181818</v>
       </c>
       <c r="D47" t="n">
-        <v>180.3181818181818</v>
+        <v>195.2272727272727</v>
       </c>
       <c r="E47" t="n">
-        <v>195.2272727272727</v>
+        <v>180.4615384615385</v>
       </c>
       <c r="F47" t="n">
-        <v>180.4615384615385</v>
+        <v>188.5454545454545</v>
       </c>
       <c r="G47" t="n">
-        <v>188.5454545454545</v>
+        <v>202.2692307692308</v>
       </c>
       <c r="H47" t="n">
-        <v>202.2692307692308</v>
+        <v>200.2307692307692</v>
       </c>
       <c r="I47" t="n">
-        <v>200.2307692307692</v>
+        <v>211.5454545454545</v>
       </c>
       <c r="J47" t="n">
-        <v>211.5454545454545</v>
+        <v>-5.734265734265733</v>
       </c>
       <c r="K47" t="n">
-        <v>14.76573426573427</v>
+        <v>-0.1433566433566398</v>
       </c>
       <c r="L47" t="n">
-        <v>20.64335664335664</v>
+        <v>11.68531468531469</v>
       </c>
       <c r="M47" t="n">
-        <v>-11.31468531468531</v>
+        <v>-9.276223776223731</v>
       </c>
       <c r="N47" t="n">
-        <v>-13.72377622377627</v>
+        <v>20.96153846153845</v>
       </c>
       <c r="O47" t="n">
-        <v>20.96153846153845</v>
+        <v>-5.590909090909065</v>
       </c>
       <c r="P47" t="n">
-        <v>-5.590909090909065</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-3.46853146853141</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>15.37062937062933</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>142.2758620689655</v>
+      </c>
       <c r="C48" t="n">
-        <v>142.2758620689655</v>
+        <v>154.2105263157895</v>
       </c>
       <c r="D48" t="n">
-        <v>154.2105263157895</v>
+        <v>133.2105263157895</v>
       </c>
       <c r="E48" t="n">
-        <v>133.2105263157895</v>
+        <v>149.6206896551724</v>
       </c>
       <c r="F48" t="n">
-        <v>149.6206896551724</v>
+        <v>131.5</v>
       </c>
       <c r="G48" t="n">
-        <v>131.5</v>
+        <v>144.5</v>
       </c>
       <c r="H48" t="n">
-        <v>144.5</v>
+        <v>137.2083333333333</v>
       </c>
       <c r="I48" t="n">
-        <v>137.2083333333333</v>
+        <v>145.8333333333333</v>
       </c>
       <c r="J48" t="n">
-        <v>145.8333333333333</v>
+        <v>-9.065335753176043</v>
       </c>
       <c r="K48" t="n">
-        <v>-16.41016333938293</v>
+        <v>4.589836660617067</v>
       </c>
       <c r="L48" t="n">
-        <v>-11.93466424682396</v>
+        <v>5.708333333333343</v>
       </c>
       <c r="M48" t="n">
-        <v>-8.625</v>
+        <v>-1.333333333333343</v>
       </c>
       <c r="N48" t="n">
-        <v>-13</v>
+        <v>7.041666666666686</v>
       </c>
       <c r="O48" t="n">
-        <v>7.041666666666686</v>
+        <v>-13.65517241379308</v>
       </c>
       <c r="P48" t="n">
-        <v>-13.65517241379308</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-0.1004990925589766</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>-6.613505747126425</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>193.4090909090909</v>
+      </c>
       <c r="C49" t="n">
-        <v>193.4090909090909</v>
+        <v>182.48</v>
       </c>
       <c r="D49" t="n">
-        <v>182.48</v>
+        <v>182.4</v>
       </c>
       <c r="E49" t="n">
-        <v>182.4</v>
+        <v>177.2173913043478</v>
       </c>
       <c r="F49" t="n">
-        <v>177.2173913043478</v>
+        <v>332.8636363636364</v>
       </c>
       <c r="G49" t="n">
-        <v>332.8636363636364</v>
+        <v>193.2</v>
       </c>
       <c r="H49" t="n">
-        <v>193.2</v>
+        <v>196.25</v>
       </c>
       <c r="I49" t="n">
-        <v>196.25</v>
+        <v>180.4347826086957</v>
       </c>
       <c r="J49" t="n">
-        <v>180.4347826086957</v>
+        <v>-11.0090909090909</v>
       </c>
       <c r="K49" t="n">
-        <v>5.182608695652192</v>
+        <v>5.262608695652176</v>
       </c>
       <c r="L49" t="n">
-        <v>10.92909090909092</v>
+        <v>-136.6136363636364</v>
       </c>
       <c r="M49" t="n">
-        <v>15.81521739130432</v>
+        <v>12.7652173913043</v>
       </c>
       <c r="N49" t="n">
-        <v>139.6636363636364</v>
+        <v>-149.3788537549406</v>
       </c>
       <c r="O49" t="n">
-        <v>-149.3788537549406</v>
+        <v>-16.27169960474305</v>
       </c>
       <c r="P49" t="n">
-        <v>-16.27169960474305</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>-129.5949011857708</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>-165.6505533596838</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>171.75</v>
+      </c>
       <c r="C50" t="n">
-        <v>171.75</v>
+        <v>150.1428571428571</v>
       </c>
       <c r="D50" t="n">
-        <v>150.1428571428571</v>
+        <v>172</v>
       </c>
       <c r="E50" t="n">
-        <v>172</v>
+        <v>141.15</v>
       </c>
       <c r="F50" t="n">
-        <v>141.15</v>
+        <v>173.6086956521739</v>
       </c>
       <c r="G50" t="n">
-        <v>173.6086956521739</v>
+        <v>140.68</v>
       </c>
       <c r="H50" t="n">
-        <v>140.68</v>
+        <v>168.6</v>
       </c>
       <c r="I50" t="n">
-        <v>168.6</v>
+        <v>136.6190476190476</v>
       </c>
       <c r="J50" t="n">
-        <v>136.6190476190476</v>
+        <v>0.25</v>
       </c>
       <c r="K50" t="n">
-        <v>30.84999999999999</v>
+        <v>8.992857142857133</v>
       </c>
       <c r="L50" t="n">
-        <v>21.60714285714286</v>
+        <v>-5.008695652173913</v>
       </c>
       <c r="M50" t="n">
-        <v>31.98095238095237</v>
+        <v>4.060952380952386</v>
       </c>
       <c r="N50" t="n">
-        <v>32.9286956521739</v>
+        <v>-9.069648033126327</v>
       </c>
       <c r="O50" t="n">
-        <v>-9.069648033126327</v>
+        <v>-8.742857142857133</v>
       </c>
       <c r="P50" t="n">
-        <v>-8.742857142857133</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>8.295113871635607</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>-17.81250517598343</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>165.4347826086957</v>
+      </c>
       <c r="C51" t="n">
-        <v>165.4347826086957</v>
+        <v>156.92</v>
       </c>
       <c r="D51" t="n">
-        <v>156.92</v>
+        <v>171.48</v>
       </c>
       <c r="E51" t="n">
-        <v>171.48</v>
+        <v>139.695652173913</v>
       </c>
       <c r="F51" t="n">
-        <v>139.695652173913</v>
+        <v>169.1111111111111</v>
       </c>
       <c r="G51" t="n">
-        <v>169.1111111111111</v>
+        <v>154.2692307692308</v>
       </c>
       <c r="H51" t="n">
-        <v>154.2692307692308</v>
+        <v>161.5357142857143</v>
       </c>
       <c r="I51" t="n">
-        <v>161.5357142857143</v>
+        <v>157.7777777777778</v>
       </c>
       <c r="J51" t="n">
-        <v>157.7777777777778</v>
+        <v>6.045217391304334</v>
       </c>
       <c r="K51" t="n">
-        <v>31.78434782608696</v>
+        <v>17.22434782608696</v>
       </c>
       <c r="L51" t="n">
-        <v>8.514782608695668</v>
+        <v>-7.575396825396837</v>
       </c>
       <c r="M51" t="n">
-        <v>3.757936507936506</v>
+        <v>-3.508547008546998</v>
       </c>
       <c r="N51" t="n">
-        <v>14.84188034188034</v>
+        <v>-4.066849816849867</v>
       </c>
       <c r="O51" t="n">
-        <v>-4.066849816849867</v>
+        <v>-11.17913043478262</v>
       </c>
       <c r="P51" t="n">
-        <v>-11.17913043478262</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>12.18562138344745</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>-15.24598025163246</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
